--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1594669.095002859</v>
+        <v>-1596619.32083142</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>171.7899060594152</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>273.8745290062386</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.2176233013835</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>55.30577178795856</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.2745596679068</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>30.06734886145036</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>375.6379053011162</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.67129869336565</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>15.54661975984441</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>279.9354214952938</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.95772706123027</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>189.5283462851252</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>208.0751056165862</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>141.1577669954433</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>102.6104623981302</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.1188684221794</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>27.25813553797033</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2005,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>50.66276464781946</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>149.3418364783652</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>127.0611703421894</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,13 +2533,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>118.9955446623089</v>
+        <v>12.78917898910507</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G28" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463105</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2779,7 +2779,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224548</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885723</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373663</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463131</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1263.998317945434</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C2" t="n">
-        <v>895.0358010050224</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>895.0358010050224</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>618.3948626148824</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1507.652482896327</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y2" t="n">
-        <v>1263.998317945434</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.1363086691491</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>246.1363086691491</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>246.1363086691491</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>246.1363086691491</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>246.1363086691491</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>246.1363086691491</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9324592893566</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>535.9324592893566</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>535.9324592893566</v>
       </c>
       <c r="V4" t="n">
-        <v>246.1363086691491</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="W4" t="n">
-        <v>246.1363086691491</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="X4" t="n">
-        <v>246.1363086691491</v>
+        <v>281.2479710834698</v>
       </c>
       <c r="Y4" t="n">
-        <v>246.1363086691491</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>1390.593246102217</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1390.593246102217</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>1004.804993503973</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>712.2993895666712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>564.1527310008552</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>564.1527310008552</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>564.1527310008552</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>564.1527310008552</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>498.1369047015218</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.1369047015218</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1133.480191223665</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>747.6919386254203</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>336.7060338358128</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2652.747346511929</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.5125998356232</v>
+        <v>340.388532134052</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5125998356232</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>536.6862101810552</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>536.6862101810552</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>247.5125998356232</v>
+        <v>340.388532134052</v>
       </c>
       <c r="V10" t="n">
-        <v>247.5125998356232</v>
+        <v>340.388532134052</v>
       </c>
       <c r="W10" t="n">
-        <v>247.5125998356232</v>
+        <v>340.388532134052</v>
       </c>
       <c r="X10" t="n">
-        <v>247.5125998356232</v>
+        <v>340.388532134052</v>
       </c>
       <c r="Y10" t="n">
-        <v>247.5125998356232</v>
+        <v>340.388532134052</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>242.5343297994526</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>391.6040140015125</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>638.3691419079765</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>985.400123145958</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="C13" t="n">
-        <v>816.4639402180511</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>666.3473008057153</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X13" t="n">
-        <v>1387.841167119728</v>
+        <v>558.0926555785013</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.048587976198</v>
+        <v>558.0926555785013</v>
       </c>
     </row>
     <row r="14">
@@ -5255,22 +5255,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5282,10 +5282,10 @@
         <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>524.8400981009108</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="C16" t="n">
-        <v>524.8400981009108</v>
+        <v>388.8679414000756</v>
       </c>
       <c r="D16" t="n">
-        <v>524.8400981009108</v>
+        <v>238.7513019877398</v>
       </c>
       <c r="E16" t="n">
-        <v>376.9270045185177</v>
+        <v>238.7513019877398</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>238.7513019877398</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>238.7513019877398</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1471.382800317528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>1216.698312111641</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>927.2811420746807</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X16" t="n">
-        <v>927.2811420746807</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y16" t="n">
-        <v>706.4885629311506</v>
+        <v>557.8041243279824</v>
       </c>
     </row>
     <row r="17">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4334.202995919603</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C19" t="n">
-        <v>4334.202995919603</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D19" t="n">
-        <v>4184.086356507268</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E19" t="n">
-        <v>4036.173262924875</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>4809.68006326902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>4809.68006326902</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="U19" t="n">
-        <v>4809.68006326902</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="V19" t="n">
-        <v>4554.995575063133</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W19" t="n">
-        <v>4554.995575063133</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X19" t="n">
-        <v>4554.995575063133</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y19" t="n">
-        <v>4334.202995919603</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6072,22 +6072,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>675.007103038344</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>385.5899330013834</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>265.3924131404652</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6227,22 +6227,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
         <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982972</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6385,10 +6385,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,13 +6473,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229676</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6625,7 +6625,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6835,22 +6835,22 @@
         <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,13 +6880,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010313</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7151,34 +7151,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,34 +7187,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7357,7 +7357,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7418,19 +7418,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,13 +7476,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7491,19 +7491,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,19 +7582,19 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627889</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,16 +8775,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>306.1147370139962</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>210.9439356040653</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>155.2854521112518</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.0203153546701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>100.8651170538366</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>26.08905410318454</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>43.82350024843899</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>8.794959945356709</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>258.979216860607</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>147.2580453357838</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>72.20572458002408</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>52.77080983974793</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>106.7141107267282</v>
+        <v>212.9204763999321</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26323,19 +26323,19 @@
         <v>97757.26493442721</v>
       </c>
       <c r="F2" t="n">
+        <v>97757.26493442721</v>
+      </c>
+      <c r="G2" t="n">
+        <v>97757.26493442721</v>
+      </c>
+      <c r="H2" t="n">
         <v>97757.26493442719</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>97757.26493442722</v>
       </c>
-      <c r="H2" t="n">
-        <v>97757.26493442721</v>
-      </c>
-      <c r="I2" t="n">
-        <v>97757.26493442721</v>
-      </c>
       <c r="J2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
         <v>102630.2212330356</v>
@@ -26344,16 +26344,16 @@
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330356</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963054</v>
+        <v>230928.7312963055</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371258</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139160.0369722519</v>
+        <v>139160.036972252</v>
       </c>
       <c r="C4" t="n">
         <v>165632.8677865244</v>
@@ -26436,25 +26436,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="K4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="M4" t="n">
         <v>44593.3948281912</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.3948281912</v>
-      </c>
-      <c r="L4" t="n">
-        <v>44593.3948281912</v>
-      </c>
-      <c r="M4" t="n">
-        <v>44593.39482819114</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819117</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26485,10 +26485,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
@@ -26500,7 +26500,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-715154.4162124965</v>
+        <v>-715270.3690764031</v>
       </c>
       <c r="C6" t="n">
         <v>-145861.7246168985</v>
@@ -26528,40 +26528,40 @@
         <v>-145861.7246168985</v>
       </c>
       <c r="E6" t="n">
-        <v>-541564.7050780563</v>
+        <v>-541662.1642040284</v>
       </c>
       <c r="F6" t="n">
-        <v>-16404.66860116014</v>
+        <v>-16502.12772713229</v>
       </c>
       <c r="G6" t="n">
-        <v>-16404.66860116011</v>
+        <v>-16502.12772713229</v>
       </c>
       <c r="H6" t="n">
-        <v>-16404.6686011602</v>
+        <v>-16502.12772713228</v>
       </c>
       <c r="I6" t="n">
-        <v>-16404.66860116014</v>
+        <v>-16502.12772713228</v>
       </c>
       <c r="J6" t="n">
         <v>-270607.0107114865</v>
       </c>
       <c r="K6" t="n">
-        <v>-39678.27941518104</v>
+        <v>-39678.27941518102</v>
       </c>
       <c r="L6" t="n">
-        <v>-39678.27941518107</v>
+        <v>-39678.27941518105</v>
       </c>
       <c r="M6" t="n">
         <v>-174479.2946490181</v>
       </c>
       <c r="N6" t="n">
-        <v>-39678.27941518099</v>
+        <v>-39678.27941518102</v>
       </c>
       <c r="O6" t="n">
-        <v>-94183.79151889354</v>
+        <v>-94183.79151889363</v>
       </c>
       <c r="P6" t="n">
-        <v>-39678.27941518103</v>
+        <v>-39678.27941518105</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26756,10 +26756,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26768,13 +26768,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964072</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>108.0558410660232</v>
+        <v>226.64491796101</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>21.87097928211213</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>335.2055429095572</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>31.2381404405952</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.45145126154864</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>236.5910235639836</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>133.8487485255012</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>10.52067551358144</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>22.61719266489374</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>78.20676862539153</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>146.7850892314816</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,16 +35495,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,7 +35969,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>616.5391140644624</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36376,10 +36376,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L28" t="n">
         <v>318.3460770095692</v>
@@ -36765,13 +36765,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
